--- a/2tecnolog/output3.xlsx
+++ b/2tecnolog/output3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AndreyA\Desktop\Сессия\DIPLOM\2tecnolog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7008F1B-2437-490B-8F77-186966F93842}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{099F1D05-1CA7-4C73-B4C0-025F566B87DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="348" yWindow="1164" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -888,7 +888,7 @@
   <dimension ref="A1:FQ2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD2"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1833,22 +1833,22 @@
         <v>1.27</v>
       </c>
       <c r="EJ2" s="1">
-        <v>0.2</v>
+        <v>0.18</v>
       </c>
       <c r="EK2" s="1">
-        <v>0.06</v>
+        <v>0.08</v>
       </c>
       <c r="EL2" s="1">
-        <v>11.25</v>
+        <v>14.03</v>
       </c>
       <c r="EM2" s="1">
-        <v>1.3</v>
+        <v>7.3</v>
       </c>
       <c r="EN2" s="1">
-        <v>45.48</v>
+        <v>45.62</v>
       </c>
       <c r="EO2" s="1">
-        <v>131.74</v>
+        <v>141.97</v>
       </c>
       <c r="EP2" s="1">
         <v>0.34</v>
@@ -1872,22 +1872,22 @@
         <v>152.13</v>
       </c>
       <c r="EW2" s="1">
-        <v>-41.75</v>
+        <v>-47.57</v>
       </c>
       <c r="EX2" s="1">
-        <v>-65.38</v>
+        <v>-53.85</v>
       </c>
       <c r="EY2" s="1">
-        <v>-45.77</v>
+        <v>-32.369999999999997</v>
       </c>
       <c r="EZ2" s="1">
-        <v>-88.88</v>
+        <v>-37.57</v>
       </c>
       <c r="FA2" s="1">
-        <v>-5.41</v>
+        <v>-5.12</v>
       </c>
       <c r="FB2" s="1">
-        <v>-13.4</v>
+        <v>-6.68</v>
       </c>
       <c r="FC2" s="1" t="s">
         <v>171</v>
@@ -1902,34 +1902,34 @@
         <v>174</v>
       </c>
       <c r="FG2" s="1">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="FH2" s="1">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="FI2" s="1">
-        <v>4027</v>
+        <v>5024</v>
       </c>
       <c r="FJ2" s="1">
-        <v>1511.5533333333331</v>
+        <v>2612.11</v>
       </c>
       <c r="FK2" s="1">
-        <v>16283</v>
+        <v>16332.11</v>
       </c>
       <c r="FL2" s="1">
-        <v>47163.45</v>
+        <v>50824.93</v>
       </c>
       <c r="FM2" s="1">
         <v>358</v>
       </c>
       <c r="FN2" s="1">
-        <v>1046.5533333333331</v>
+        <v>2093.11</v>
       </c>
       <c r="FO2" s="1">
-        <v>3803</v>
+        <v>4355</v>
       </c>
       <c r="FP2" s="1">
-        <v>16283</v>
+        <v>16332.11</v>
       </c>
       <c r="FQ2" s="1">
         <v>91</v>
@@ -1937,5 +1937,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/2tecnolog/output3.xlsx
+++ b/2tecnolog/output3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\AndreyA\Desktop\Сессия\DIPLOM\2tecnolog\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{099F1D05-1CA7-4C73-B4C0-025F566B87DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2990321-4CBD-4DBB-8C75-2D576EC4B32E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="348" yWindow="1164" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" r:id="rId1"/>
@@ -888,7 +888,7 @@
   <dimension ref="A1:FQ2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="P13" sqref="P13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1419,7 +1419,7 @@
         <v>0.97</v>
       </c>
       <c r="B2" s="1">
-        <v>3.3</v>
+        <v>2.5</v>
       </c>
       <c r="C2" s="1">
         <v>60</v>
@@ -1428,10 +1428,10 @@
         <v>22.74</v>
       </c>
       <c r="E2" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2" s="1">
-        <v>91</v>
+        <v>182</v>
       </c>
       <c r="G2" s="1">
         <v>0.22</v>
@@ -1452,19 +1452,19 @@
         <v>65</v>
       </c>
       <c r="M2" s="1">
-        <v>1.66</v>
+        <v>1.44</v>
       </c>
       <c r="N2" s="1">
-        <v>2.2999999999999998</v>
+        <v>1.89</v>
       </c>
       <c r="O2" s="1">
-        <v>2.0499999999999998</v>
+        <v>1.8</v>
       </c>
       <c r="P2" s="1">
-        <v>1.85</v>
+        <v>1.63</v>
       </c>
       <c r="Q2" s="1">
-        <v>1.9</v>
+        <v>1.6</v>
       </c>
       <c r="R2" s="1">
         <v>1</v>
@@ -1548,22 +1548,22 @@
         <v>1.04</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.34</v>
+        <v>0.28999999999999998</v>
       </c>
       <c r="AT2" s="1">
-        <v>0.21</v>
+        <v>0.17</v>
       </c>
       <c r="AU2" s="1">
-        <v>16.45</v>
+        <v>14.44</v>
       </c>
       <c r="AV2" s="1">
-        <v>12.3</v>
+        <v>10.84</v>
       </c>
       <c r="AW2" s="1">
         <v>23.5</v>
       </c>
       <c r="AX2" s="1">
-        <v>126.44</v>
+        <v>106.47</v>
       </c>
       <c r="AY2" s="1">
         <v>0.32</v>
@@ -1836,58 +1836,58 @@
         <v>0.18</v>
       </c>
       <c r="EK2" s="1">
-        <v>0.08</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="EL2" s="1">
-        <v>14.03</v>
+        <v>13.66</v>
       </c>
       <c r="EM2" s="1">
-        <v>7.3</v>
+        <v>7.27</v>
       </c>
       <c r="EN2" s="1">
-        <v>45.62</v>
+        <v>49.11</v>
       </c>
       <c r="EO2" s="1">
-        <v>141.97</v>
+        <v>148.96</v>
       </c>
       <c r="EP2" s="1">
-        <v>0.34</v>
+        <v>0.33</v>
       </c>
       <c r="EQ2" s="1">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="ER2" s="1">
-        <v>0.17</v>
+        <v>0.16</v>
       </c>
       <c r="ES2" s="1">
-        <v>20.75</v>
+        <v>20.079999999999998</v>
       </c>
       <c r="ET2" s="1">
-        <v>11.69</v>
+        <v>11.21</v>
       </c>
       <c r="EU2" s="1">
         <v>48.08</v>
       </c>
       <c r="EV2" s="1">
-        <v>152.13</v>
+        <v>145.47</v>
       </c>
       <c r="EW2" s="1">
-        <v>-47.57</v>
+        <v>-44.9</v>
       </c>
       <c r="EX2" s="1">
-        <v>-53.85</v>
+        <v>-56.25</v>
       </c>
       <c r="EY2" s="1">
-        <v>-32.369999999999997</v>
+        <v>-31.96</v>
       </c>
       <c r="EZ2" s="1">
-        <v>-37.57</v>
+        <v>-35.130000000000003</v>
       </c>
       <c r="FA2" s="1">
-        <v>-5.12</v>
+        <v>2.14</v>
       </c>
       <c r="FB2" s="1">
-        <v>-6.68</v>
+        <v>2.4</v>
       </c>
       <c r="FC2" s="1" t="s">
         <v>171</v>
@@ -1905,38 +1905,37 @@
         <v>66</v>
       </c>
       <c r="FH2" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="FI2" s="1">
-        <v>5024</v>
+        <v>4889</v>
       </c>
       <c r="FJ2" s="1">
-        <v>2612.11</v>
+        <v>2603.9899999999998</v>
       </c>
       <c r="FK2" s="1">
-        <v>16332.11</v>
+        <v>17582.12</v>
       </c>
       <c r="FL2" s="1">
-        <v>50824.93</v>
+        <v>53326.91</v>
       </c>
       <c r="FM2" s="1">
         <v>358</v>
       </c>
       <c r="FN2" s="1">
-        <v>2093.11</v>
+        <v>2005.99</v>
       </c>
       <c r="FO2" s="1">
-        <v>4355</v>
+        <v>4227</v>
       </c>
       <c r="FP2" s="1">
-        <v>16332.11</v>
+        <v>17582.12</v>
       </c>
       <c r="FQ2" s="1">
-        <v>91</v>
+        <v>182</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>